--- a/N3.xlsx
+++ b/N3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Codigo</t>
   </si>
@@ -25,7 +25,19 @@
     <t>Matricula do professor</t>
   </si>
   <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>154</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -401,14 +413,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>999</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/N3.xlsx
+++ b/N3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Codigo</t>
   </si>
@@ -25,13 +25,7 @@
     <t>Matricula do professor</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>English</t>
+    <t>456</t>
   </si>
   <si>
     <t>Teste</t>
@@ -395,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,21 +411,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/N3.xlsx
+++ b/N3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Codigo</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Teste</t>
-  </si>
-  <si>
-    <t>154</t>
   </si>
 </sst>
 </file>
@@ -413,8 +410,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
